--- a/20220421_algo_v2_9/algo_results/perf_result/item_cf.xlsx
+++ b/20220421_algo_v2_9/algo_results/perf_result/item_cf.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,16 +456,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007520891364902507</v>
+        <v>0.01213623907085998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007186629526462395</v>
+        <v>0.0129912521216869</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007353760445682451</v>
+        <v>0.01256374559627344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001671309192200557</v>
+        <v>0.0004275065254134638</v>
       </c>
     </row>
     <row r="3">
@@ -473,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.220949263502455</v>
+        <v>0.2995169082125604</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2084006462035541</v>
+        <v>0.3220064724919094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2146749548530046</v>
+        <v>0.3107616903522349</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006274308649450444</v>
+        <v>0.0112447821396745</v>
       </c>
     </row>
     <row r="4">
@@ -490,16 +490,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01454663003070955</v>
+        <v>0.02332727158713237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01389412461629598</v>
+        <v>0.02497489959839358</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01422037732350276</v>
+        <v>0.02415108559276297</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003262527072067888</v>
+        <v>0.000823814005630601</v>
       </c>
     </row>
   </sheetData>
